--- a/medicine/Psychotrope/Premier_cru_(Bourgogne)/Premier_cru_(Bourgogne).xlsx
+++ b/medicine/Psychotrope/Premier_cru_(Bourgogne)/Premier_cru_(Bourgogne).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un premier cru de Bourgogne est un vin classé au sein d'une appellation d'origine contrôlée (AOC) du vignoble de Bourgogne. Cette appellation est en deuxième position de la classification des quatre catégories suivantes : 
 appellation grands crus ;
@@ -515,10 +527,12 @@
           <t>Catégories d'AOC en Bourgogne</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les vins de Bourgogne se regroupent en quatre grandes catégories[1] :
-les appellations régionales, soit plus de la moitié de la production, provenant de l'ensemble du vignoble de Bourgogne ou d'une de ses sous-régions ; il y a sept AOC régionales (bourgogne[2], bourgogne-passe-tout-grains, etc.), auxquels on peut rajouter les quatorze dénominations géographiques de l'appellation bourgogne (bourgogne hautes-côtes-de-nuits, bourgogne tonnerre, etc.) et les 27 de l'appellation mâcon (mâcon Igé, mâcon Azé, etc.) ;
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins de Bourgogne se regroupent en quatre grandes catégories :
+les appellations régionales, soit plus de la moitié de la production, provenant de l'ensemble du vignoble de Bourgogne ou d'une de ses sous-régions ; il y a sept AOC régionales (bourgogne, bourgogne-passe-tout-grains, etc.), auxquels on peut rajouter les quatorze dénominations géographiques de l'appellation bourgogne (bourgogne hautes-côtes-de-nuits, bourgogne tonnerre, etc.) et les 27 de l'appellation mâcon (mâcon Igé, mâcon Azé, etc.) ;
 les appellations communales, soit un tiers de la production environ ; il y a 45 AOC communales, également appelées « appellations villages » (chablis, pommard, nuits-saint-georges, givry, etc.), en y comptant les deux AOC sous-régionales (côte-de-beaune-villages et mâcon) ;
 les dénominations premiers crus, soit 10 % de la production ; il s'agit de dénominations au sein des appellations communales ; le nom de cette AOC doit être suivie du nom d'un climat classé en premier cru ; il y a 562 climats en premier cru (saint-aubin premier cru « Murger des dents de chien », santenay premier cru « la Comme », chablis premier cru « Fourchaume », etc.) ;
 les appellations grands crus, soit 1,5 à 2 % de la production ; il y a 33 AOC grands crus, dont trente-deux en Côte-d'Or (bienvenues-bâtard-montrachet, corton-charlemagne, bonnes-mares, romanée-conti, etc.) et une dans l'Yonne (les sept climats de chablis-grand-cru).
@@ -551,11 +565,13 @@
           <t>Premiers crus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les climats classés premiers crus concernent les terrains présentés comme les meilleurs terroirs, en général le milieu des versants les mieux exposés du Chablisien, de la côte de Nuits, de la côte de Beaune et de la côte chalonnaise. Sur les étiquettes le nom de l'AOC communale doit être suivi du nom du climat classé en premier cru (exemple : morey-saint-denis premier cru Clos des Ormes).
 Il existe 562 dénominations premiers crus au sein de 28 appellations de vins de Bourgogne.
-En octobre 2017, les vignerons de l'appellation pouilly-fuissé font la demande de reconnaissance d'une série de premiers crus à l'Institut national des appellations d'origine[3].
+En octobre 2017, les vignerons de l'appellation pouilly-fuissé font la demande de reconnaissance d'une série de premiers crus à l'Institut national des appellations d'origine.
 </t>
         </is>
       </c>
@@ -584,7 +600,9 @@
           <t>Liste des premiers crus de Bourgogne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Aloxe-corton
